--- a/铝/eta/氧化铝周度库存_合并数据.xlsx
+++ b/铝/eta/氧化铝周度库存_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>475.895</v>
+        <v>379.795</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>488.645</v>
+        <v>411.945</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>485.575</v>
+        <v>428.075</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>481.795</v>
+        <v>443.495</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>477.695</v>
+        <v>458.595</v>
       </c>
     </row>
     <row r="7">
